--- a/municipal/სასტუმროები/სტუმრები/სამცხე-ჯავახეთი/ახალქალაქი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/სამცხე-ჯავახეთი/ახალქალაქი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\სამცხე - ჯავახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\სამცხე - ჯავახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>მათ შორის: ევროკავშირის ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ახალქალაქის მუნიციპალიტეტი</t>
-  </si>
-  <si>
     <t>საქართველოდან</t>
   </si>
   <si>
@@ -70,6 +67,54 @@
   <si>
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ახალქალაქის მუნიციპალიტეტში</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -231,7 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -372,9 +431,6 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -387,11 +443,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -694,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:69" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -769,31 +831,31 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
       <c r="AA2" s="69"/>
       <c r="AB2" s="69"/>
       <c r="AC2" s="69"/>
@@ -1036,7 +1098,7 @@
     </row>
     <row r="6" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="26">
         <v>405</v>
@@ -1076,7 +1138,7 @@
     </row>
     <row r="7" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="26">
         <v>478</v>
@@ -1156,7 +1218,7 @@
     </row>
     <row r="9" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="26">
         <v>392</v>
@@ -1196,7 +1258,7 @@
     </row>
     <row r="10" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="39">
         <v>15</v>
@@ -1235,14 +1297,14 @@
       <c r="Z10" s="53"/>
     </row>
     <row r="11" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="66">
+      <c r="A11" s="65">
         <v>2011</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -1358,7 +1420,7 @@
     </row>
     <row r="13" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="59">
         <v>772</v>
@@ -1407,7 +1469,7 @@
     </row>
     <row r="14" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="59">
         <v>314</v>
@@ -1505,7 +1567,7 @@
     </row>
     <row r="16" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="26">
         <v>273</v>
@@ -1554,7 +1616,7 @@
     </row>
     <row r="17" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="39">
         <v>8</v>
@@ -1602,14 +1664,14 @@
       <c r="BM17" s="6"/>
     </row>
     <row r="18" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66">
+      <c r="A18" s="65">
         <v>2012</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="41"/>
@@ -1716,7 +1778,7 @@
     </row>
     <row r="20" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="26">
         <v>524</v>
@@ -1756,7 +1818,7 @@
     </row>
     <row r="21" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="26">
         <v>297</v>
@@ -1836,7 +1898,7 @@
     </row>
     <row r="23" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="26">
         <v>205</v>
@@ -1876,7 +1938,7 @@
     </row>
     <row r="24" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="39">
         <v>77</v>
@@ -1915,14 +1977,14 @@
       <c r="Z24" s="48"/>
     </row>
     <row r="25" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="66">
+      <c r="A25" s="65">
         <v>2013</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -2029,7 +2091,7 @@
     </row>
     <row r="27" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="26">
         <v>432</v>
@@ -2069,7 +2131,7 @@
     </row>
     <row r="28" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="26">
         <v>127</v>
@@ -2149,7 +2211,7 @@
     </row>
     <row r="30" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="26">
         <v>52</v>
@@ -2189,7 +2251,7 @@
     </row>
     <row r="31" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="39">
         <v>44</v>
@@ -2228,14 +2290,14 @@
       <c r="Z31" s="48"/>
     </row>
     <row r="32" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="66">
+      <c r="A32" s="65">
         <v>2014</v>
       </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
@@ -2322,7 +2384,7 @@
     </row>
     <row r="34" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="59">
         <v>506</v>
@@ -2362,7 +2424,7 @@
     </row>
     <row r="35" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="59">
         <v>149</v>
@@ -2442,7 +2504,7 @@
     </row>
     <row r="37" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="59">
         <v>43</v>
@@ -2482,7 +2544,7 @@
     </row>
     <row r="38" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="39">
         <v>86</v>
@@ -2521,14 +2583,14 @@
       <c r="Z38" s="48"/>
     </row>
     <row r="39" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66">
+      <c r="A39" s="65">
         <v>2015</v>
       </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
@@ -2668,7 +2730,7 @@
     </row>
     <row r="41" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="59">
         <v>969</v>
@@ -2708,7 +2770,7 @@
     </row>
     <row r="42" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="59">
         <v>313</v>
@@ -2788,7 +2850,7 @@
     </row>
     <row r="44" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="59">
         <v>198</v>
@@ -2828,7 +2890,7 @@
     </row>
     <row r="45" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="39">
         <v>47</v>
@@ -2867,14 +2929,14 @@
       <c r="Z45" s="48"/>
     </row>
     <row r="46" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66">
+      <c r="A46" s="65">
         <v>2016</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -2981,7 +3043,7 @@
     </row>
     <row r="48" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="59">
         <v>3771</v>
@@ -3021,7 +3083,7 @@
     </row>
     <row r="49" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="59">
         <v>3436</v>
@@ -3101,7 +3163,7 @@
     </row>
     <row r="51" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="59">
         <v>1852</v>
@@ -3141,7 +3203,7 @@
     </row>
     <row r="52" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="62">
         <v>427</v>
@@ -3180,14 +3242,14 @@
       <c r="Z52" s="48"/>
     </row>
     <row r="53" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="66">
+      <c r="A53" s="65">
         <v>2017</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -3294,7 +3356,7 @@
     </row>
     <row r="55" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="59">
         <v>8625</v>
@@ -3334,7 +3396,7 @@
     </row>
     <row r="56" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="59">
         <v>1692</v>
@@ -3414,7 +3476,7 @@
     </row>
     <row r="58" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="59">
         <v>578</v>
@@ -3454,7 +3516,7 @@
     </row>
     <row r="59" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="62">
         <v>858</v>
@@ -3493,14 +3555,14 @@
       <c r="Z59" s="48"/>
     </row>
     <row r="60" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="66">
+      <c r="A60" s="65">
         <v>2018</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3607,7 +3669,7 @@
     </row>
     <row r="62" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="59">
         <v>2930</v>
@@ -3647,7 +3709,7 @@
     </row>
     <row r="63" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="59">
         <v>3924</v>
@@ -3727,7 +3789,7 @@
     </row>
     <row r="65" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="59">
         <v>442</v>
@@ -3767,7 +3829,7 @@
     </row>
     <row r="66" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="62">
         <v>3437</v>
@@ -3806,14 +3868,14 @@
       <c r="Z66" s="48"/>
     </row>
     <row r="67" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="66">
+      <c r="A67" s="65">
         <v>2019</v>
       </c>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
@@ -3920,7 +3982,7 @@
     </row>
     <row r="69" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="59">
         <v>4258</v>
@@ -3960,7 +4022,7 @@
     </row>
     <row r="70" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="59">
         <v>5367</v>
@@ -4040,7 +4102,7 @@
     </row>
     <row r="72" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="59">
         <v>196</v>
@@ -4080,7 +4142,7 @@
     </row>
     <row r="73" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="62">
         <v>5068</v>
@@ -4119,14 +4181,14 @@
       <c r="Z73" s="48"/>
     </row>
     <row r="74" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="66">
+      <c r="A74" s="65">
         <v>2020</v>
       </c>
-      <c r="B74" s="67"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
@@ -4233,7 +4295,7 @@
     </row>
     <row r="76" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="59">
         <v>1671</v>
@@ -4273,7 +4335,7 @@
     </row>
     <row r="77" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="59">
         <v>130</v>
@@ -4353,7 +4415,7 @@
     </row>
     <row r="79" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="59">
         <v>41</v>
@@ -4393,7 +4455,7 @@
     </row>
     <row r="80" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="62" t="s">
         <v>8</v>
@@ -4432,14 +4494,14 @@
       <c r="Z80" s="48"/>
     </row>
     <row r="81" spans="1:69" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="66">
+      <c r="A81" s="65">
         <v>2021</v>
       </c>
-      <c r="B81" s="67"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
@@ -4546,7 +4608,7 @@
     </row>
     <row r="83" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" s="59">
         <v>3143</v>
@@ -4581,7 +4643,7 @@
     </row>
     <row r="84" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="59">
         <v>195</v>
@@ -4651,7 +4713,7 @@
     </row>
     <row r="86" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="26">
         <v>53</v>
@@ -4686,7 +4748,7 @@
     </row>
     <row r="87" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" s="39">
         <v>95</v>
@@ -4719,13 +4781,15 @@
       <c r="T87" s="48"/>
       <c r="U87" s="48"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
+    <row r="88" spans="1:69" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="68"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="68"/>
       <c r="G88" s="48"/>
       <c r="H88" s="48"/>
       <c r="I88" s="48"/>
@@ -6560,15 +6624,9 @@
       <c r="U167" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
+  <mergeCells count="25">
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="BE2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A11:F11"/>
@@ -6583,8 +6641,15 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="V2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
